--- a/notebook/Processed_Defense_Data.xlsx
+++ b/notebook/Processed_Defense_Data.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mukeshkr\Agentic-AI-Defense-Data-Extraction\notebook\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA68193C-4293-4ACC-9CB0-742343661DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AW$31</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="469">
   <si>
     <t>Customer Region</t>
   </si>
@@ -34,6 +43,12 @@
     <t>Domestic Content</t>
   </si>
   <si>
+    <t>Split Flag</t>
+  </si>
+  <si>
+    <t>Split Reason</t>
+  </si>
+  <si>
     <t>Market Segment</t>
   </si>
   <si>
@@ -94,6 +109,9 @@
     <t>Supplier Name</t>
   </si>
   <si>
+    <t>Supplier Name Evidence</t>
+  </si>
+  <si>
     <t>Program Type</t>
   </si>
   <si>
@@ -127,6 +145,18 @@
     <t>Signing Year</t>
   </si>
   <si>
+    <t>QA Status</t>
+  </si>
+  <si>
+    <t>QA Flags</t>
+  </si>
+  <si>
+    <t>QA Fix Suggestion</t>
+  </si>
+  <si>
+    <t>LLM QA Fix Summary</t>
+  </si>
+  <si>
     <t>Description of Contract</t>
   </si>
   <si>
@@ -145,57 +175,66 @@
     <t>North America</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>Navy</t>
   </si>
   <si>
     <t>Indigenous</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Multiple financial values found</t>
+  </si>
+  <si>
     <t>Naval Platforms</t>
   </si>
   <si>
     <t>BAE Systems - Norfolk Ship Repair, Norfolk, Virginia, is awarded a $107,736,087, firm-fixed-price contract for the execution of the USS Ross (DDG 71) fiscal 2023 extended dry-docking selected restricted availability.</t>
   </si>
   <si>
-    <t>Matched with similar examples in the Naval Platforms segment.</t>
+    <t>The paragraph discusses a contract related to a naval ship repair, indicating it falls under Naval Platforms.</t>
   </si>
   <si>
     <t>Surface Combatants</t>
   </si>
   <si>
-    <t>Aligned with the general type of Surface Combatants as per similar examples.</t>
+    <t>The USS Ross is classified as a destroyer, which is a type of surface combatant.</t>
   </si>
   <si>
     <t>Destroyers</t>
   </si>
   <si>
-    <t>Specific type identified as Destroyers, consistent with the USS Ross classification.</t>
+    <t>The USS Ross (DDG 71) is specifically identified as a destroyer.</t>
   </si>
   <si>
     <t>Arleigh Burke-class</t>
   </si>
   <si>
-    <t>General name corresponds to the class of the USS Ross.</t>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>The general class name for the USS Ross is not explicitly mentioned in the paragraph.</t>
   </si>
   <si>
     <t>USS Ross (DDG-71)</t>
   </si>
   <si>
-    <t>Exact match with the specific system name provided in the evidence.</t>
+    <t>The specific name of the system is clearly stated as USS Ross (DDG 71).</t>
   </si>
   <si>
     <t>Crewed</t>
   </si>
   <si>
-    <t>Confirmed piloting type as crewed based on rule-based piloting.</t>
+    <t>The rule-based piloting indicates that the system is crewed.</t>
   </si>
   <si>
     <t>High</t>
   </si>
   <si>
+    <t>BAE Systems</t>
+  </si>
+  <si>
     <t>BAE Systems - Norfolk Ship Repair</t>
   </si>
   <si>
@@ -214,10 +253,7 @@
     <t>107.736</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Cumulative value if options exercised would be $123,876,183</t>
+    <t xml:space="preserve"> | Multiple values detected: ['107,736,087,', '123,876,183', '93,897,036', '13,839,051']</t>
   </si>
   <si>
     <t>B2G</t>
@@ -229,6 +265,12 @@
     <t>2022</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>BAE Systems - Norfolk Ship Repair, Norfolk, Virginia, is awarded a $107,736,087, firm-fixed-price contract for the execution of the USS Ross (DDG 71) fiscal 2023 extended dry-docking selected restricted availability. This availability will include a combination of maintenance, modernization and repair of the USS Ross. This contract includes options which, if exercised, would bring the cumulative value of this contract to $123,876,183. Work will be performed in Norfolk, Virginia, and is expected to be completed by March 2024. Fiscal 2022 operations and maintenance (Navy) funds in the amount of $93,897,036 (87%); and fiscal 2022 other procurement (Navy) funds in the amount of $13,839,051 (13%) will be obligated at time of award, of which $93,897,036 will expire at the end of the current fiscal year. This contract was competitively procured using full and open competition via the System for Award Management website. Competitive proposals were received in response to Solicitation Number (N00024-22-R-4422). The Naval Sea Systems Command, Washington, D.C., is the contracting activity (N00024-22-C-4422).</t>
   </si>
   <si>
@@ -242,13 +284,1159 @@
   </si>
   <si>
     <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>Weapon Systems</t>
+  </si>
+  <si>
+    <t>The Boeing Co., St. Louis, Missouri, is awarded a $25,648,020 fixed-firm-price, cost-plus-fixed-fee and cost-only, full rate production contract for the production of High-Altitude Anti-Submarine Warfare Weapon Capability Air Launch Accessory equipment.</t>
+  </si>
+  <si>
+    <t>The contract is for weapon production, specifically related to anti-submarine warfare capabilities.</t>
+  </si>
+  <si>
+    <t>Precision Guided Weapons</t>
+  </si>
+  <si>
+    <t>The system is categorized under precision guided weapons due to its application in anti-submarine warfare.</t>
+  </si>
+  <si>
+    <t>Guided Bomb</t>
+  </si>
+  <si>
+    <t>The specific type is identified as a guided bomb due to its operational use in warfare.</t>
+  </si>
+  <si>
+    <t>High-Altitude Anti-Submarine Warfare Weapon Capability (HAAWC) Air Launch Accessory (ALA) equipment</t>
+  </si>
+  <si>
+    <t>The name reflects the specific system being produced under the contract.</t>
+  </si>
+  <si>
+    <t>The specific name is the same as the general name, indicating the exact system being referenced.</t>
+  </si>
+  <si>
+    <t>No information regarding piloting is provided in the paragraph.</t>
+  </si>
+  <si>
+    <t>Boeing</t>
+  </si>
+  <si>
+    <t>The Boeing Co.</t>
+  </si>
+  <si>
+    <t>Procurement</t>
+  </si>
+  <si>
+    <t>25.648</t>
+  </si>
+  <si>
+    <t>If all options are exercised, cumulative value would be $121,426,700 | Multiple values detected: ['25,648,020', '121,426,700', '11,535,520', '279,074']</t>
+  </si>
+  <si>
+    <t>The Boeing Co., St. Louis, Missouri, is awarded a $25,648,020 fixed-firm-price, cost-plus-fixed-fee and cost-only, full rate production contract for the production of High-Altitude Anti-Submarine Warfare Weapon Capability Air Launch Accessory equipment, related engineering and hardware repair services, and other direct cost support. This contract includes options, which, if exercised, would bring the cumulative value of this contract to $121,426,700. Work will be performed in St. Charles, Missouri (44%); St. Louis, Missouri (26%); Salt Lake City, Utah (12%); Minneapolis, Minnesota (4%); Joplin, Missouri (2%),; Piedmont, Missouri (2%); Orlando, Florida (2%); Cedar Rapids, Iowa (2%); Chandler, Arizona (1%); Berea, Ohio (1%); Wichita, Kansas (1%); Albuquerque, New Mexico (1%); Lexington, Kentucky, (1%); and Chatsworth, California (1%), and is expected to be completed by September 2024. If all options are exercised, work will continue through September 2030. Fiscal 2020 weapons procurement (Navy) funds in the amount of $11,535,520 (98%); and fiscal 2021 weapons procurement (Navy) funds in the amount of $279,074 (2%) funding will be obligated at time of award, of which $11,535,520 will expire at the end of the current fiscal year. This contract was not competitively procured in accordance with 10 U.S. Code 2304(c) (1) — only one responsible source and no other supplies or services will satisfy agency requirements. The Naval Sea Systems Command, Washington, D.C., is the contracting activity (N00024-22-C-6407).</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Imported</t>
+  </si>
+  <si>
+    <t>Intermat,* Biddeford, Maine, is awarded a $17,736,279 firm-fixed-price, cost-plus-fixed-fee, and cost-only indefinite-delivery/indefinite-quantity contract for the delivery of Submarine Launched Ballistic Missile nose-tip materials.</t>
+  </si>
+  <si>
+    <t>The contract is for materials related to a missile system, specifically a submarine-launched ballistic missile.</t>
+  </si>
+  <si>
+    <t>Missile</t>
+  </si>
+  <si>
+    <t>The contract involves the delivery of materials for a missile system.</t>
+  </si>
+  <si>
+    <t>Ballistic Missile</t>
+  </si>
+  <si>
+    <t>The materials specified are for a submarine-launched ballistic missile.</t>
+  </si>
+  <si>
+    <t>Submarine-launched ballistic missiles (SLBMs)</t>
+  </si>
+  <si>
+    <t>The contract is specifically for materials related to submarine-launched ballistic missiles.</t>
+  </si>
+  <si>
+    <t>SLBM nose-tip materials</t>
+  </si>
+  <si>
+    <t>The contract details the delivery of nose-tip materials for submarine-launched ballistic missiles.</t>
+  </si>
+  <si>
+    <t>The paragraph does not provide information regarding piloting.</t>
+  </si>
+  <si>
+    <t>Intermat</t>
+  </si>
+  <si>
+    <t>17.736</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Multiple values detected: ['17,736,279', '1,301,611']</t>
+  </si>
+  <si>
+    <t>G2G</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Supplier is Unknown but award pattern exists</t>
+  </si>
+  <si>
+    <t>Re-extract supplier using strict awardee supplier extraction</t>
+  </si>
+  <si>
+    <t>Corrected Supplier Name from 'Unknown' to 'Intermat' based on the award pattern. No changes made to Program Type as it is valid.</t>
+  </si>
+  <si>
+    <t>Intermat,* Biddeford, Maine, is awarded a $17,736,279 firm-fixed-price, cost-plus-fixed-fee, and cost-only indefinite-delivery/indefinite-quantity contract for the delivery of Submarine Launched Ballistic Missile nose-tip materials. This contract does not include options. This contract combines purchases for the Navy (82.23%) and the government of the United Kingdom (17.77%) under the Foreign Military Sales program. Work will be performed in Biddeford, Maine, and is expected to be completed by July 2027. Fiscal 2022 Weapons Procurement (Navy) funds in the amount of $1,301,611 will be obligated at time of award. This contract was not competitively procured in accordance with 10 U.S. Code 2304(c)(1) [now 10 U.S. Code 3204(a)(1)] — only one responsible source and no other type of supplies or services will satisfy agency requirements. The Naval Surface Warfare Center Dahlgren Division, Dahlgren, Virginia, is the contracting activity (N0017822D4404).</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>The paragraph discusses Total Ship Computing Environment Lab hardware, which falls under military buildings and facilities.</t>
+  </si>
+  <si>
+    <t>RDT&amp;E Facilities</t>
+  </si>
+  <si>
+    <t>The system is related to research, development, test, and evaluation facilities.</t>
+  </si>
+  <si>
+    <t>The specific type of system is not listed in the paragraph.</t>
+  </si>
+  <si>
+    <t>Total Ship Computing Environment Lab</t>
+  </si>
+  <si>
+    <t>The system name is explicitly mentioned in the paragraph.</t>
+  </si>
+  <si>
+    <t>Total Ship Computing Environment Lab hardware for modernization/technical refresh and Conventional Prompt Strike</t>
+  </si>
+  <si>
+    <t>The specific system name is detailed in the paragraph.</t>
+  </si>
+  <si>
+    <t>Raytheon Co.</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>11.172</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Multiple values detected: ['11,172,229', '9,333,203', '1,839,026']</t>
+  </si>
+  <si>
+    <t>Raytheon Co., Tewksbury, Massachusetts, is awarded an $11,172,229 firm-fixed-price modification to previously awarded contract N00024-22-C-5522 for Total Ship Computing Environment Lab hardware for modernization/technical refresh and Conventional Prompt Strike to support DDG 1000-class combat system activation, sustainment and modernization.  Work will be performed in Nashua, New Hampshire (92%); Portsmouth, Rhode Island (4%); and  Tewksbury, Massachusetts (4%), and is expected to be completed by November 2023. Fiscal 2022 other procurement (Navy) funds in the amount of $9,333,203 (84%); and fiscal 2022 research, development, test and evaluation (Navy) funds in the amount of $1,839,026 (16%) will be obligated at time of award and will not expire at the end of the current fiscal year. The Naval Sea Systems Command, Washington, D.C., is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Contract Modification.</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>No split condition found</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Electromagnetic Aircraft Launch System (EMALS)</t>
+  </si>
+  <si>
+    <t>Directly mentioned in the paragraph.</t>
+  </si>
+  <si>
+    <t>Two or three launch motor subsystem, two energy storage group tailored configuration of the Electromagnetic Aircraft Launch System (EMALS) and a three wire, six energy absorber subsystem Advanced Arresting Gear System configuration</t>
+  </si>
+  <si>
+    <t>two or three launch motor subsystem, two energy storage group tailored configuration of the Electromagnetic Aircraft Launch System (EMALS) and a three wire, six energy absorber subsystem Advanced Arresting Gear System configuration</t>
+  </si>
+  <si>
+    <t>General Atomics</t>
+  </si>
+  <si>
+    <t>8.837</t>
+  </si>
+  <si>
+    <t>General Atomics, San Diego, California, is awarded an $8,837,078 firm-fixed-price order (N0001922F2258) against a previously issued basic ordering agreement (N0001921G0014). This order provides for the development of a two or three launch motor subsystem, two energy storage group tailored configuration of the Electromagnetic Aircraft Launch System (EMALS) and a three wire, six energy absorber subsystem Advanced Arresting Gear System configuration that are compatible with the government of France’s future aircraft carrier and provides acceptable mission capability. Work will be performed in San Diego, California (98.85%); and Tupelo, Mississippi (1.15%), and is expected to be completed in June 2023. Foreign Military Sales customer funds in the amount of $8,837,078 will be obligated at the time of award, none of which will expire at the end of the current fiscal year. The Naval Air Systems Command, Patuxent River, Maryland, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>The paragraph does not specify a clear market segment related to defense systems.</t>
+  </si>
+  <si>
+    <t>The paragraph does not specify a general system type.</t>
+  </si>
+  <si>
+    <t>The paragraph does not specify a specific system type.</t>
+  </si>
+  <si>
+    <t>Research, development, engineering, and test and evaluation for programs throughout the Department of Defense</t>
+  </si>
+  <si>
+    <t>The Johns Hopkins University Applied Physics Laboratory, Laurel, Maryland, is awarded a $4,396,000,000 cost-plus-fixed-fee, indefinite-delivery/indefinite-quantity contract for research, development, engineering, and test and evaluation for programs throughout the Department of Defense.</t>
+  </si>
+  <si>
+    <t>This is the general description of the contract awarded.</t>
+  </si>
+  <si>
+    <t>Strategic systems test and evaluation; submarine security and survivability; space science and engineering; combat systems and guided missiles; air and missile defense and power projection; information technology, simulation, modeling, and operations analysis; and mission related research, development, test and evaluation</t>
+  </si>
+  <si>
+    <t>including strategic systems test and evaluation; submarine security and survivability; space science and engineering; combat systems and guided missiles; air and missile defense and power projection; information technology, simulation, modeling, and operations analysis; and mission related research, development, test and evaluation.</t>
+  </si>
+  <si>
+    <t>This is a detailed description of the specific areas covered by the contract.</t>
+  </si>
+  <si>
+    <t>The paragraph does not mention any piloting information.</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Johns Hopkins University</t>
+  </si>
+  <si>
+    <t>The Johns Hopkins University Applied Physics Laboratory</t>
+  </si>
+  <si>
+    <t>Other Service</t>
+  </si>
+  <si>
+    <t>4396.000</t>
+  </si>
+  <si>
+    <t>Cumulative value could reach $10,600,000,000 if options are exercised | Multiple values detected: ['4,396,000,000', '10,600,000,000', '6,803,376']</t>
+  </si>
+  <si>
+    <t>The Johns Hopkins University Applied Physics Laboratory, Laurel, Maryland, is awarded a $4,396,000,000 cost-plus-fixed-fee, indefinite-delivery/indefinite-quantity contract for research, development, engineering, and test and evaluation for programs throughout the Department of Defense within its core competency areas including strategic systems test and evaluation; submarine security and survivability; space science and engineering; combat systems and guided missiles; air and missile defense and power projection; information technology, simulation, modeling, and operations analysis; and mission related research, development, test and evaluation. This contract includes options which, if exercised, would bring the cumulative value of this contract to $10,600,000,000. Work will be performed in Laurel, Maryland, and is expected to be completed by August 2027. If all options are exercised, work will continue through August 2032. Fiscal 2022 research, development, test and evaluation (Navy) funds in the amount of $6,803,376 will be obligated at time of award and will not expire at the end of the current fiscal year. This contract was not competitively procured in accordance with 10 U.S. Code 2304(c)(3)(B), as implemented in Defense Federal Acquisition Regulation 6.302-3 — industrial mobilization; engineering, developmental, or research capability; or expert services. The Naval Sea Systems Command, Washington, D.C., is the contracting activity (N00024-22-D-6404).</t>
+  </si>
+  <si>
+    <t>https://www.war.gov/News/Contracts/Contract/Article/3136011/</t>
+  </si>
+  <si>
+    <t>2022-08-22 00:00:00</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Land Platforms</t>
+  </si>
+  <si>
+    <t>Armoured Fighting Vehicles</t>
+  </si>
+  <si>
+    <t>Armoured All-Terrain Vehicle</t>
+  </si>
+  <si>
+    <t>Cold Weather All-Terrain Vehicle</t>
+  </si>
+  <si>
+    <t>Cold Weather All-Terrain Vehicle production units, spare parts and contractor logistics support</t>
+  </si>
+  <si>
+    <t>BAE Systems Land &amp; Armaments L.P.</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Estimated</t>
+  </si>
+  <si>
+    <t>278.183</t>
+  </si>
+  <si>
+    <t>BAE Systems Land &amp; Armaments L.P., Sterling Heights, Michigan, was awarded a $278,182,786 firm-fixed-price contract for production units, spare parts and contractor logistics support for the Cold Weather All-Terrain Vehicle. Bids were solicited via the internet with two received. Work locations and funding will be determined with each order, with an estimated completion date of Aug. 19, 2029. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity (W56HZV-22-D-0082).</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>The paragraph discusses contracts related to high-explosive mortar cartridges, which fall under weapon systems.</t>
+  </si>
+  <si>
+    <t>Ammunition</t>
+  </si>
+  <si>
+    <t>The specific type of ammunition is not explicitly mentioned in the paragraph.</t>
+  </si>
+  <si>
+    <t>High-explosive mortar cartridges</t>
+  </si>
+  <si>
+    <t>high-explosive mortar cartridges</t>
+  </si>
+  <si>
+    <t>The paragraph specifically mentions high-explosive mortar cartridges.</t>
+  </si>
+  <si>
+    <t>Load, assemble and package high-explosive mortar cartridges</t>
+  </si>
+  <si>
+    <t>The paragraph describes the contract for loading, assembling, and packaging high-explosive mortar cartridges.</t>
+  </si>
+  <si>
+    <t>372.590</t>
+  </si>
+  <si>
+    <t>Day and Zimmermann Inc., Parsons, Kansas (W52P1J-22-D-0031); and General Dynamics Ordnance and Tactical Systems Canada Inc., Repentigny, Quebec, Canada (W52P1J-22-D-0032), will compete for each order of the $372,589,589 firm-fixed-price contract to load, assemble and package high-explosive mortar cartridges. Bids were solicited via the internet with three received. Work locations and funding will be determined with each order, with an estimated completion date of Aug. 18, 2027. U.S. Army Contracting Command, Rock Island Arsenal, Illinois, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>https://www.war.gov/News/Contracts/Contract/Article/3137139/</t>
+  </si>
+  <si>
+    <t>2022-08-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Oshkosh Defense LLC, Oshkosh, Wisconsin, was awarded a $22,639,245 modification (P00315) to contract W56HZV-20-C-0050 to exercise available options to support the fielding of Joint Light Tactical Vehicles, packaged and installed kits, and trailers.</t>
+  </si>
+  <si>
+    <t>The paragraph discusses the fielding of Joint Light Tactical Vehicles, which are categorized under Land Platforms.</t>
+  </si>
+  <si>
+    <t>Joint Light Tactical Vehicles fall under the category of Armoured Fighting Vehicles.</t>
+  </si>
+  <si>
+    <t>The Joint Light Tactical Vehicle is a specific type of Armoured All-Terrain Vehicle.</t>
+  </si>
+  <si>
+    <t>JLTV</t>
+  </si>
+  <si>
+    <t>The Joint Light Tactical Vehicle is commonly referred to as JLTV.</t>
+  </si>
+  <si>
+    <t>Fielding of JLTV, packaged and installed kits, and trailers</t>
+  </si>
+  <si>
+    <t>The specific system name refers to the fielding of JLTV and associated kits and trailers.</t>
+  </si>
+  <si>
+    <t>The paragraph does not specify the piloting method for the system.</t>
+  </si>
+  <si>
+    <t>Oshkosh</t>
+  </si>
+  <si>
+    <t>Oshkosh Defense LLC</t>
+  </si>
+  <si>
+    <t>22.639</t>
+  </si>
+  <si>
+    <t>Oshkosh Defense LLC, Oshkosh, Wisconsin, was awarded a $22,639,245 modification (P00315) to contract W56HZV-20-C-0050 to exercise available options to support the fielding of Joint Light Tactical Vehicles, packaged and installed kits, and trailers. Work will be performed in Oshkosh, Wisconsin, with an estimated completion date of Sept. 30, 2024. Fiscal 2020 other procurement, Army funds and fiscal 2020 and 2022 Marine Corps procurement funds in the amount of $22,639,245 were obligated at the time of the award. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Air Platforms</t>
+  </si>
+  <si>
+    <t>This contract provides system engineering, analysis, research, development, logistics, configuration and data management services in support of the Naval Air Warfare Center Weapons Division’s aircraft integrated product teams.</t>
+  </si>
+  <si>
+    <t>The focus on aircraft and unmanned aerial systems indicates a clear alignment with the Air Platforms segment.</t>
+  </si>
+  <si>
+    <t>The specific system type is not listed in the provided information.</t>
+  </si>
+  <si>
+    <t>F/A-18, EA-18G, F-35, AV-8B, AH-1/UH-1 aircraft and unmanned aerial systems</t>
+  </si>
+  <si>
+    <t>to include F/A-18, EA-18G, F-35, AV-8B, AH-1/UH-1 aircraft and unmanned aerial systems.</t>
+  </si>
+  <si>
+    <t>The names of the aircraft and unmanned systems are explicitly mentioned in the contract description.</t>
+  </si>
+  <si>
+    <t>F/A-18, EA-18G, F-35, AV-8B, AH-1/UH-1 aircraft and unmanned aerial systems' system engineering, analysis, research, development, logistics, configuration and data management services</t>
+  </si>
+  <si>
+    <t>The description of the services provided directly relates to the specific systems mentioned.</t>
+  </si>
+  <si>
+    <t>Uncrewed</t>
+  </si>
+  <si>
+    <t>unmanned aerial systems.</t>
+  </si>
+  <si>
+    <t>The mention of 'unmanned aerial systems' indicates that some systems are uncrewed.</t>
+  </si>
+  <si>
+    <t>Advanced Systems and Software Engineering Technologies LLC</t>
+  </si>
+  <si>
+    <t>292.310</t>
+  </si>
+  <si>
+    <t>Corrected Supplier Name from 'Unknown' to 'Advanced Systems and Software Engineering Technologies LLC' based on the award pattern. Changed Program Type from 'Other Service' to 'RDT&amp;E' as it aligns with the nature of the contract.</t>
+  </si>
+  <si>
+    <t>Advanced Systems and Software Engineering Technologies LLC,* Ridgecrest, California, is awarded a $292,310,598 cost-plus-fixed-fee, cost reimbursable, indefinite-delivery/indefinite-quantity contract. This contract provides system engineering, analysis, research, development, logistics, configuration and data management services in support of the Naval Air Warfare Center Weapons Division’s aircraft integrated product teams for the development, integration, test, evaluation, and fielding of new and upgraded capabilities to Navy aircraft, to include F/A-18, EA-18G, F-35, AV-8B, AH-1/UH-1 aircraft and unmanned aerial systems. Work will be performed in China Lake, California (86.5%); Eglin Air Force Base, Florida (7%); Ridgecrest, California (5%); Point Mugu, California (1%); and various locations within the continental U.S. (0.5%), and is expected to be completed in October 2027. No funds will be obligated at the time of award; funds will be obligated on individual orders as they are issued.  This contract was competitively procured as a small business set-aside; three offers were received. The Naval Air Warfare Center Weapons Division, China Lake, California, is the contracting activity (N6893622D0038).</t>
+  </si>
+  <si>
+    <t>Engineering design and development</t>
+  </si>
+  <si>
+    <t>to exercise options for engineering design and development.</t>
+  </si>
+  <si>
+    <t>This is the general description of the work being performed.</t>
+  </si>
+  <si>
+    <t>This is the specific description of the work being performed.</t>
+  </si>
+  <si>
+    <t>Lockheed Martin</t>
+  </si>
+  <si>
+    <t>Lockheed Martin Rotary and Mission Systems</t>
+  </si>
+  <si>
+    <t>78.424</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Multiple values detected: ['78,423,685', '58,919']</t>
+  </si>
+  <si>
+    <t>Lockheed Martin Rotary and Mission Systems, Manassas, Virginia, is awarded a $78,423,685 cost-plus-incentive-fee and cost reimbursement contract modification to previously awarded contract N00024-17-C-6259 to exercise options for engineering design and development.  Work will be performed in Manassas, Virginia (65%); Clearwater, Florida (32%); Syracuse, New York (2%); and Marion, Florida (1%), and is expected to be completed by December 2023. Fiscal 2022 other procurement (Navy) funds in the amount of $58,919 will be obligated at time of award, and will not expire at the end of the current fiscal year. The Naval Sea Systems Command, Washington Navy Yard, Washington, D.C., is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Lockheed Martin Corp., Rotary and Mission Systems, Moorestown, New Jersey, is awarded a $13,542,835 cost-plus-incentive-fee modification to previously awarded contract N00024-13-C-5116 for AEGIS combat system engineering agent efforts...</t>
+  </si>
+  <si>
+    <t>The AEGIS combat system is classified under Weapon Systems as it involves integrated weapon platforms and launchers.</t>
+  </si>
+  <si>
+    <t>Integrated Weapon Systems</t>
+  </si>
+  <si>
+    <t>The AEGIS combat system is an integrated weapon system that combines various capabilities.</t>
+  </si>
+  <si>
+    <t>Air and Missile Defense System</t>
+  </si>
+  <si>
+    <t>The AEGIS combat system is specifically designed for air and missile defense operations.</t>
+  </si>
+  <si>
+    <t>AEGIS Combat System</t>
+  </si>
+  <si>
+    <t>The AEGIS Combat System is the name of the system being developed and integrated.</t>
+  </si>
+  <si>
+    <t>AEGIS Combat System Advanced Capability Build 20</t>
+  </si>
+  <si>
+    <t>Advanced Capability Build 20 is a specific version of the AEGIS Combat System being developed.</t>
+  </si>
+  <si>
+    <t>Lockheed Martin Corp.</t>
+  </si>
+  <si>
+    <t>13.543</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Multiple values detected: ['13,542,835', '7,220,634', '5,883,043', '439,158']</t>
+  </si>
+  <si>
+    <t>Lockheed Martin Corp., Rotary and Mission Systems, Moorestown, New Jersey, is awarded a $13,542,835 cost-plus-incentive-fee modification to previously awarded contract N00024-13-C-5116 for AEGIS combat system engineering agent efforts, which include the design, development, integration, test and delivery of Advanced Capability Build 20. Work will be performed in Moorestown, New Jersey, and is expected to be completed by May 2023. Fiscal 2019 shipbuilding and conversion (Navy) funds in the amount of $7,220,634 (53%); fiscal 2018 shipbuilding and conversion (Navy) funds in the amount of $5,883,043 (44%); and fiscal 2021 shipbuilding and conversion (Navy) funds in the amount of $439,158 (3%) will be obligated at time of award and do not expire at the end of the current fiscal year. The Naval Sea Systems Command, Washington, D.C., is the contracting activity.</t>
+  </si>
+  <si>
+    <t>The paragraph mentions 'High Mobility Multipurpose Wheeled Vehicle Expanded Capacity Vehicle variants,' which falls under the category of Land Platforms.</t>
+  </si>
+  <si>
+    <t>Logistics &amp; Support</t>
+  </si>
+  <si>
+    <t>The High Mobility Multipurpose Wheeled Vehicle is used for logistical support, classifying it under Logistics &amp; Support.</t>
+  </si>
+  <si>
+    <t>The specific type is not listed in the provided information.</t>
+  </si>
+  <si>
+    <t>High Mobility Multipurpose Wheeled Vehicle (HMMWV) Expanded Capacity Vehicle (ECV)</t>
+  </si>
+  <si>
+    <t>High Mobility Multipurpose Wheeled Vehicle Expanded Capacity Vehicle variants</t>
+  </si>
+  <si>
+    <t>High Mobility Multipurpose Wheeled Vehicle (HMMWV) Expanded Capacity Vehicle (ECV) variants</t>
+  </si>
+  <si>
+    <t>The specific variants of the system are mentioned in the paragraph.</t>
+  </si>
+  <si>
+    <t>The paragraph does not provide information regarding the piloting of the system.</t>
+  </si>
+  <si>
+    <t>AM General</t>
+  </si>
+  <si>
+    <t>AM General LLC</t>
+  </si>
+  <si>
+    <t>732.741</t>
+  </si>
+  <si>
+    <t>AM General LLC, South Bend, Indiana, was awarded a $732,741,016 modification (P00042) to contract W56HZV-17-D-0071 for production of High Mobility Multipurpose Wheeled Vehicle Expanded Capacity Vehicle variants. Bids were solicited via the internet with one received. Work locations and funding will be determined with each order, with an estimated completion date of Dec. 31, 2024. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity. (Awarded Aug. 19, 2022)</t>
+  </si>
+  <si>
+    <t>https://www.war.gov/News/Contracts/Contract/Article/3138645/</t>
+  </si>
+  <si>
+    <t>2022-08-24 00:00:00</t>
+  </si>
+  <si>
+    <t>BAE Systems Land &amp; Armaments L.P., York, Pennsylvania, was awarded a $49,689,943 cost-no-fee contract for Bradley Fighting Vehicles.</t>
+  </si>
+  <si>
+    <t>The paragraph discusses a contract for vehicles used in land operations.</t>
+  </si>
+  <si>
+    <t>Bradley Fighting Vehicles are classified as armored fighting vehicles.</t>
+  </si>
+  <si>
+    <t>Tracked Armoured Fighting Vehicles</t>
+  </si>
+  <si>
+    <t>Bradley Fighting Vehicles are specifically tracked armored fighting vehicles.</t>
+  </si>
+  <si>
+    <t>Bradley Fighting Vehicles</t>
+  </si>
+  <si>
+    <t>The system name is explicitly mentioned as Bradley Fighting Vehicles.</t>
+  </si>
+  <si>
+    <t>The specific system name is also Bradley Fighting Vehicles.</t>
+  </si>
+  <si>
+    <t>The paragraph does not specify the piloting type, but Bradley Fighting Vehicles are typically crewed.</t>
+  </si>
+  <si>
+    <t>49.690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAE Systems Land &amp; Armaments L.P., York, Pennsylvania, was awarded a $49,689,943 cost-no-fee contract for Bradley Fighting Vehicles. Bids were solicited via the internet with one received. Work will be performed in York, Pennsylvania, with an estimated completion date of Aug. 23, 2023. Fiscal 2022 weapons and tracked combat vehicle procurement, Army funds in the amount of $49,689,943 were obligated at the time of the award. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity (W56HZV-22-F-0413). </t>
+  </si>
+  <si>
+    <t>Charles Reed Knight Jr., doing business as Knight's Armament Co.,* Titusville, Florida, was awarded a $14,998,849 modification (P00004) to contract W15QKN-20-D-0044 for the M110 Semi-Automatic Sniper System and various M110 configurations.</t>
+  </si>
+  <si>
+    <t>The paragraph discusses a contract for a weapon system, specifically a sniper system.</t>
+  </si>
+  <si>
+    <t>Small Arms &amp; Ammunition</t>
+  </si>
+  <si>
+    <t>for the M110 Semi-Automatic Sniper System and various M110 configurations.</t>
+  </si>
+  <si>
+    <t>The M110 Semi-Automatic Sniper System falls under the category of small arms.</t>
+  </si>
+  <si>
+    <t>Small Arms</t>
+  </si>
+  <si>
+    <t>The specific system type is identified as small arms, which includes sniper systems.</t>
+  </si>
+  <si>
+    <t>M110 Semi-Automatic Sniper System</t>
+  </si>
+  <si>
+    <t>The general name of the system is explicitly mentioned in the paragraph.</t>
+  </si>
+  <si>
+    <t>M110 Semi-Automatic Sniper System and various M110 configurations</t>
+  </si>
+  <si>
+    <t>The specific name of the system is detailed in the paragraph.</t>
+  </si>
+  <si>
+    <t>Charles Reed Knight Jr.</t>
+  </si>
+  <si>
+    <t>14.999</t>
+  </si>
+  <si>
+    <t>Charles Reed Knight Jr., doing business as Knight's Armament Co.,* Titusville, Florida, was awarded a $14,998,849 modification (P00004) to contract W15QKN-20-D-0044 for the M110 Semi-Automatic Sniper System and various M110 configurations. Bids were solicited via the internet with one received. Work locations and funding will be determined with each order, with an estimated completion date of Sept. 25, 2025. U.S. Army Contracting Command, Newark, New Jersey, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Foreign Military Sales</t>
+  </si>
+  <si>
+    <t>Air Force</t>
+  </si>
+  <si>
+    <t>The paragraph does not specify a market segment related to defense systems.</t>
+  </si>
+  <si>
+    <t>Group B Ground and System Integration Lab material</t>
+  </si>
+  <si>
+    <t>The paragraph does not provide information regarding system piloting.</t>
+  </si>
+  <si>
+    <t>L-3 Communications Integrated Systems</t>
+  </si>
+  <si>
+    <t>L-3 Communication Integrated Systems L.P.</t>
+  </si>
+  <si>
+    <t>96.539</t>
+  </si>
+  <si>
+    <t>L-3 Communication Integrated Systems L.P., Greenville, Texas, has been awarded a $96,538,833 cost-plus-fixed-fee and firm-fixed-price contract action for the procurement and fabrication of Group B Ground and System Integration Lab material. Work will be performed in Greenville, Texas, and is expected be complete by June 30, 2024. This contract involved 100% foreign military sales. This award is the result of a sole source acquisition. Foreign Military Sales funds in the amount of $96,538,833 are being obligated at the time of award. The 645th Aeronautical Systems Group, Wright-Patterson Air Force Base, Ohio, is the contracting activity (FA8620-21-G-4027 / FA8620-22-F-4831).</t>
+  </si>
+  <si>
+    <t>This modification exercises an option to extend services to provide continued organizational level aircraft maintenance and logistics support for aircrew systems and subsystems, search and rescue equipment, and support equipment for the P-3 Orion, C-130 Hercules, F/A-18 Hornet, E/A-18 Growler, AV-8B Harrier II, H-60 Seahawk, and E-2D Hawkeye aircraft in support of the Naval Air Warfare Center Weapons Division (NAWCWD) Naval Test Wing Pacific.</t>
+  </si>
+  <si>
+    <t>The paragraph discusses aircraft maintenance and logistics support, which falls under the Air Platforms segment.</t>
+  </si>
+  <si>
+    <t>The specific system type is not listed in the paragraph.</t>
+  </si>
+  <si>
+    <t>P-3, C-130, F/A-18, E/A-18, AV-8B, H-60, and E-2D</t>
+  </si>
+  <si>
+    <t>for the P-3 Orion, C-130 Hercules, F/A-18 Hornet, E/A-18 Growler, AV-8B Harrier II, H-60 Seahawk, and E-2D Hawkeye aircraft</t>
+  </si>
+  <si>
+    <t>The paragraph explicitly lists these aircraft as part of the maintenance and support services.</t>
+  </si>
+  <si>
+    <t>The paragraph does not specify piloting details, but the listed aircraft are typically crewed.</t>
+  </si>
+  <si>
+    <t>Dyncorp International LLC</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>30.269</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Multiple values detected: ['30,268,759', '10,113,024']</t>
+  </si>
+  <si>
+    <t>Dyncorp International LLC, Fort Worth, Texas, is awarded a $30,268,759 firm-fixed-price, cost-plus-fixed-fee, cost reimbursable modification (P00071) to a previously awarded contract (N6893617C0052). This modification exercises an option to extend services to provide continued organizational level aircraft maintenance and logistics support for aircrew systems and subsystems, search and rescue equipment, and support equipment for the P-3 Orion, C-130 Hercules, F/A-18 Hornet, E/A-18 Growler, AV-8B Harrier II, H-60 Seahawk, and E-2D Hawkeye aircraft in support of the Naval Air Warfare Center Weapons Division (NAWCWD) Naval Test Wing Pacific. Work will be performed in China Lake, California (60%); Point Mugu, California (30 %); Hickam Air Force Base, Hawaii (2%); Lemoore, California (2%); Patrick AFB, Florida (1%); Holloman AFB, New Mexico (1%); Patuxent River, Maryland, (1%); Yuma, Arizona (1%); Miramar, California (1%); and North Island, California (1%), and is expected to be completed in April 2023. Working capital (Navy) funds in the amount of $10,113,024 will be obligated at time of award, none of which will expire at the end of the current fiscal year. The NAWCWD, Point Mugu, California, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Multiple Customer Operators detected (Text Split) (operator list)</t>
+  </si>
+  <si>
+    <t>Commercial cranes</t>
+  </si>
+  <si>
+    <t>Grove U.S. LLC, Shady Grove, Pennsylvania, has been awarded a maximum $266,866,453 fixed-price with economic-price-adjustment, indefinite-delivery requirements contract for commercial cranes.</t>
+  </si>
+  <si>
+    <t>This is the specific system name mentioned in the paragraph.</t>
+  </si>
+  <si>
+    <t>Grove U.S. LLC</t>
+  </si>
+  <si>
+    <t>266.870</t>
+  </si>
+  <si>
+    <t>Grove U.S. LLC, Shady Grove, Pennsylvania, has been awarded a maximum $266,866,453 fixed-price with economic-price-adjustment, indefinite-delivery requirements contract for commercial cranes. This was a competitive acquisition with one response received. This is a five-year contract with no option periods. Other contracts are expected to be awarded under this solicitation (SPE8EC-21-R-0003) and awardees will compete for a portion of the maximum dollar value. The ordering period end date is Aug. 23, 2027. Using military services are Army, Navy and Marine Corps. Type of appropriation is fiscal 2022 through 2027 defense working capital funds. The contracting activity is the Defense Logistics Agency Troop Support, Philadelphia, Pennsylvania (SPE8EC-22-D-0011).</t>
+  </si>
+  <si>
+    <t>https://www.war.gov/News/Contracts/Contract/Article/3140102/</t>
+  </si>
+  <si>
+    <t>2022-08-25 00:00:00</t>
+  </si>
+  <si>
+    <t>General Dynamics Land Systems Inc., Sterling Heights, Michigan, was awarded a $25,999,349 modification (P00015) to contract W56HZV-22-C-0012 for Abrams systems technical support.</t>
+  </si>
+  <si>
+    <t>The paragraph discusses a contract related to military vehicles, specifically Abrams systems, which fall under the Land Platforms segment.</t>
+  </si>
+  <si>
+    <t>for Abrams systems technical support.</t>
+  </si>
+  <si>
+    <t>Abrams systems are classified as Armoured Fighting Vehicles.</t>
+  </si>
+  <si>
+    <t>Main Battle Tank</t>
+  </si>
+  <si>
+    <t>The M1 Abrams is a specific type of Main Battle Tank.</t>
+  </si>
+  <si>
+    <t>M1 Abrams</t>
+  </si>
+  <si>
+    <t>The M1 Abrams is explicitly mentioned as the system being supported.</t>
+  </si>
+  <si>
+    <t>M1 Abrams technical support</t>
+  </si>
+  <si>
+    <t>The specific support being provided is for the M1 Abrams system.</t>
+  </si>
+  <si>
+    <t>The paragraph does not specify the piloting type, but the M1 Abrams is typically crewed.</t>
+  </si>
+  <si>
+    <t>General Dynamics</t>
+  </si>
+  <si>
+    <t>General Dynamics Land Systems Inc.</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>25.999</t>
+  </si>
+  <si>
+    <t>General Dynamics Land Systems Inc., Sterling Heights, Michigan, was awarded a $25,999,349 modification (P00015) to contract W56HZV-22-C-0012 for Abrams systems technical support. Work will be performed in Sterling Heights, Michigan, with an estimated completion date of Sept. 30, 2025. Fiscal 2020 other procurement, Army funds in the amount of $25,999,349 were obligated at the time of the award. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Raytheon Co., Poulsbo, Washington, is awarded an $18,543,264 cost-plus-fixed-fee and firm-fixed-price, indefinite delivery/indefinite-quantity requirements contract for depot-level support, maintenance and modifications support of the AN/AQS-20 Sonar Mine Detecting Set, and the AN/MHP-20 Deploy and Retrieve system for the AN/AQS-20 System.</t>
+  </si>
+  <si>
+    <t>The contract pertains to naval systems and mine detection, which falls under Naval Platforms.</t>
+  </si>
+  <si>
+    <t>Mine Warfare/Mine Countermeasures (Maritime)</t>
+  </si>
+  <si>
+    <t>The AN/AQS-20 is a towed, mine hunting and identification system for Program Executive Office, Unmanned and Small Combatants.</t>
+  </si>
+  <si>
+    <t>The system is specifically designed for mine hunting and identification, categorizing it under mine warfare.</t>
+  </si>
+  <si>
+    <t>Mine Hunter</t>
+  </si>
+  <si>
+    <t>The AN/AQS-20 is a towed, mine hunting and identification system.</t>
+  </si>
+  <si>
+    <t>The specific function of the AN/AQS-20 is to hunt and identify mines, qualifying it as a mine hunter.</t>
+  </si>
+  <si>
+    <t>AN/AQS-20</t>
+  </si>
+  <si>
+    <t>The system is referred to as AN/AQS-20 in the context of mine detection.</t>
+  </si>
+  <si>
+    <t>AN/AQS-20 Sonar Mine Detecting Set, and the AN/MHP-20 Deploy and Retrieve system</t>
+  </si>
+  <si>
+    <t>The AN/AQS-20 Sonar Mine Detecting Set, and the AN/MHP-20 Deploy and Retrieve system for the AN/AQS-20 System.</t>
+  </si>
+  <si>
+    <t>The specific names of the systems involved in the contract are provided in the text.</t>
+  </si>
+  <si>
+    <t>The designators indicate that the systems are uncrewed.</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>18.543</t>
+  </si>
+  <si>
+    <t>Options could bring cumulative value to $91,706,089 | Multiple values detected: ['18,543,264', '91,706,089']</t>
+  </si>
+  <si>
+    <t>Raytheon Co., Poulsbo, Washington, is awarded an $18,543,264 cost-plus-fixed-fee and firm-fixed-price, indefinite delivery/indefinite-quantity requirements contract for depot-level support, maintenance and modifications support of the AN/AQS-20 Sonar Mine Detecting Set, and the AN/MHP-20 Deploy and Retrieve system for the AN/AQS-20 System. The AN/AQS-20 is a towed, mine hunting and identification system for Program Executive Office, Unmanned and Small Combatants. This contract includes options which, if exercised, would bring the cumulative value of this contract to $91,706,089. Work will be performed in Portsmouth, Rhode Island (65%); Poulsbo, Washington (30%); and Panama City, Florida (5%); and is expected to be completed by August 2023. If all options are exercised, work will continue through August 2027. No funding will be obligated at time of award. This contract was not competitively procured in accordance with Defense Federal Acquisition Regulation 6.302-1(a)(2)(ii) and (iii) – circumstances permitting other than full and open competition when only one source and no supplies or services will satisfy agency requirements. Naval Surface Warfare Center, Panama City Division, Panama City, Florida, is the contracting activity (N6133122D0004).</t>
+  </si>
+  <si>
+    <t>Multiple Customer Operators detected (Text Split) | Multiple financial values found (operator list)</t>
+  </si>
+  <si>
+    <t>No specific system type listed.</t>
+  </si>
+  <si>
+    <t>Sourcing of ground and aircraft support equipment (SE)</t>
+  </si>
+  <si>
+    <t>Sourcing of ground and aircraft SE items.</t>
+  </si>
+  <si>
+    <t>Describes the general nature of the contract.</t>
+  </si>
+  <si>
+    <t>Describes the specific nature of the contract.</t>
+  </si>
+  <si>
+    <t>No piloting information provided.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Multiple values detected: ['533,500,000', '50,000,', '13,646', '16,597']</t>
+  </si>
+  <si>
+    <t>ATAP Inc., Eastaboga, Alabama (FA8517-22-D-0009); Boneal Inc., Means, Kentucky (FA8517-22-D-0012); and F3 Logistics LLC, Warner Robins, Georgia (FA8517-22-D-0013), have been awarded a multiple award, small business set-aside contract ceiling of $533,500,000 for the sourcing of support equipment (SE) with a unit price of $50,000, or less. This contract provides for the sourcing, acquiring, and delivery of a broad range of ground and aircraft SE items. Work will be performed at various locations, and is expected to be complete by Aug. 25, 2032. This contract involves Army, Navy and Foreign Military Sales to be determined as needed on individual delivery orders. This award is the result of a competitive acquisition with one solicitation posted to sam.gov and nine offers were received. Fiscal 2020 Air Force procurement funds in the amount of $13,646; and fiscal 2021 Air Force procurement funds in the amount of $16,597 are being obligated at the time of award. Air Force Sustainment Center, Robins Air Force Base, Georgia, is the contract activity.</t>
+  </si>
+  <si>
+    <t>Multiple award contract detected (non-supplier split).</t>
+  </si>
+  <si>
+    <t>https://www.war.gov/News/Contracts/Contract/Article/3141819/</t>
+  </si>
+  <si>
+    <t>2022-08-26 00:00:00</t>
+  </si>
+  <si>
+    <t>C4ISR Systems</t>
+  </si>
+  <si>
+    <t>The contract is related to geospatial intelligence (GEOINT) and measurement and signature intelligence (MASINT) research and development, which falls under C4ISR Systems.</t>
+  </si>
+  <si>
+    <t>Other C4ISR</t>
+  </si>
+  <si>
+    <t>The system type is categorized as 'Other C4ISR' due to its focus on advanced technical exploitation and operational production support.</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>The specific system type is classified as 'Other' as it does not fit into a more defined category within C4ISR.</t>
+  </si>
+  <si>
+    <t>Advanced Technical Exploitation Program II</t>
+  </si>
+  <si>
+    <t>The contract explicitly mentions the 'Advanced Technical Exploitation Program II' as the system being supported.</t>
+  </si>
+  <si>
+    <t>Geospatial Intelligence (GEOINT) and Measurement and Signature Intelligence (MASINT) research and development</t>
+  </si>
+  <si>
+    <t>The specific focus of the program includes GEOINT and MASINT research and development, as stated in the contract.</t>
+  </si>
+  <si>
+    <t>The designators indicate that there is no applicable piloting information for this system.</t>
+  </si>
+  <si>
+    <t>Altamira Technologies Corp.</t>
+  </si>
+  <si>
+    <t>280.000</t>
+  </si>
+  <si>
+    <t>Modification increases estimated contract value from $960,000,000 to $1,240,000,000 | Multiple values detected: ['280,000,000', '960,000,000', '1,240,000,000']</t>
+  </si>
+  <si>
+    <t>Altamira Technologies Corp., McLean, Virginia, has been awarded a $280,000,000 modification (P00029) to a previously awarded, cost-plus-fixed-fee, firm-fixed-price, and cost-plus-incentive-fee, multiple award, indefinite-delivery/indefinite-quantity contract (FA8604-15-D-7977). The contract provides for Advanced Technical Exploitation Program II support for geospatial intelligence (GEOINT) research and development; and measurement and signature intelligence (MASINT) research and development; GEOINT and MASINT operational production support; and other mission areas. Work will be performed at the National Air and Space Intelligence Center, Wright-Patterson Air Force Base, Ohio, and other locations, and is expected to be completed by Oct. 2, 2024. The contract modification provides for an increase to the overall ceiling of the contract; and an extension of the ordering period by one year. This modification increases the estimated contract value from $960,000,000 to $1,240,000,000. Total cumulative face value of the contract is $1,240,000,000. No funds will be obligated at the time of award. Air Force Life Cycle Management Center, Wright-Patterson AFB, Ohio, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>The specific type is classified as 'Other' as it does not fit into a more defined category within C4ISR.</t>
+  </si>
+  <si>
+    <t>The contract is for the Advanced Technical Exploitation Program II.</t>
+  </si>
+  <si>
+    <t>The specific system name refers to the research and development areas covered by the contract.</t>
+  </si>
+  <si>
+    <t>The designators indicate that there is no applicable piloting information.</t>
+  </si>
+  <si>
+    <t>Radiance Tech</t>
+  </si>
+  <si>
+    <t>Radiance Technologies</t>
+  </si>
+  <si>
+    <t>Radiance Technologies, Huntsville, Alabama, has been awarded a $280,000,000 modification (P00025) to a previously awarded, cost-plus-fixed-fee, firm-fixed-price, and cost-plus-incentive-fee, multiple award, indefinite-delivery/indefinite-quantity contract (FA8604-15-D-7976). The contract provides for Advanced Technical Exploitation Program II support for geospatial intelligence (GEOINT) research and development; and measurement and signature intelligence (MASINT) research and development; GEOINT and MASINT operational production support; and other mission areas. Work will be performed at the National Air and Space Intelligence Center, Wright-Patterson Air Force Base, Ohio, and other locations,  and is expected to be completed by Oct. 2, 2024. The contract modification provides for an increase to the overall ceiling of the contract; and an extension of the ordering period by one year. This modification increases the estimated contract value from $960,000,000 to $1,240,000,000. Total cumulative face value of the contract is $1,240,000,000. No funds will be obligated at the time of award. Air Force Life Cycle Management Center, Wright-Patterson AFB, Ohio, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>The specific focus of the program includes GEOINT and MASINT research and development.</t>
+  </si>
+  <si>
+    <t>Centauri</t>
+  </si>
+  <si>
+    <t>Centauri LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Multiple values detected: ['280,000,000', '960,000,000', '1,240,000,000']</t>
+  </si>
+  <si>
+    <t>Centauri LLC, Chantilly, Virginia, has been awarded a $280,000,000 modification (P00031) to a previously awarded, cost-plus-fixed-fee, firm-fixed-price, and cost-plus-incentive-fee, multiple award, indefinite-delivery/indefinite-quantity contract (FA8604-15-D-7975). The contract provides for Advanced Technical Exploitation Program II support for geospatial intelligence (GEOINT) research and development; and measurement and signature intelligence (MASINT) research and development; GEOINT and MASINT operational production support; and other mission areas. Work will be performed at the National Air and Space Intelligence Center, Wright-Patterson Air Force Base, Ohio, and other locations, and is expected to be completed by Oct. 2, 2024. The contract modification provides for an increase to the overall ceiling of the contract; and an extension of the ordering period by one year. This modification increases the estimated contract value from $960,000,000 to $1,240,000,000. Total cumulative face value of the contract is $1,240,000,000. No funds will be obligated at the time of award. Air Force Life Cycle Management Center, Wright-Patterson AFB, Ohio, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Lockheed Martin Corp., Orlando, Florida, has been awarded a $15,000,000 firm-fixed-price contract for Stand-in Attack Weapon Phase 1.2.</t>
+  </si>
+  <si>
+    <t>The contract is for a weapon system, specifically a missile.</t>
+  </si>
+  <si>
+    <t>This contract provides for all activities associated with the statement of objectives as well as the contractor's proposal for Phase 1.2.</t>
+  </si>
+  <si>
+    <t>The Stand-in Attack Weapon is classified as a missile.</t>
+  </si>
+  <si>
+    <t>Air-to-Surface</t>
+  </si>
+  <si>
+    <t>Stand-in Attack Weapon Phase 1.2.</t>
+  </si>
+  <si>
+    <t>The system is designed for air-to-surface operations.</t>
+  </si>
+  <si>
+    <t>Stand-in Attack Weapon (SiAW)</t>
+  </si>
+  <si>
+    <t>The specific system name is derived from the contract title.</t>
+  </si>
+  <si>
+    <t>Stand-in Attack Weapon (SiAW) Phase 1.2</t>
+  </si>
+  <si>
+    <t>The contract explicitly mentions this specific phase of the weapon system.</t>
+  </si>
+  <si>
+    <t>No piloting information is provided in the paragraph.</t>
+  </si>
+  <si>
+    <t>15.000</t>
+  </si>
+  <si>
+    <t>Lockheed Martin Corp., Orlando, Florida, has been awarded a $15,000,000 firm-fixed-price contract for Stand-in Attack Weapon Phase 1.2. This contract provides for all activities associated with the statement of objectives as well as the contractor's proposal for Phase 1.2. Work will be performed in Orlando, Florida, and is expected to be complete by Feb. 25, 2023. This award is the result of a sole source acquisition. Fiscal 2022 Air Force research and development funds in the amount of $15,000,000 are being obligated at the time of award. Air Force Life Cycle Management Center, Eglin Air Force Base, Florida, is the contracting activity (FA8656-22-F-1036).</t>
+  </si>
+  <si>
+    <t>Northrop Grumman Systems Corp., Northridge, California, has been awarded a $15,000,000 firm-fixed-price contract for Stand-in Attack Weapon Phase 1.2.</t>
+  </si>
+  <si>
+    <t>The system is classified as a missile based on the description provided.</t>
+  </si>
+  <si>
+    <t>The specific type is inferred from the system name but not explicitly stated in the paragraph.</t>
+  </si>
+  <si>
+    <t>The system name is derived from the contract title.</t>
+  </si>
+  <si>
+    <t>The specific system name is directly mentioned in the contract description.</t>
+  </si>
+  <si>
+    <t>The paragraph does not mention any piloting requirements.</t>
+  </si>
+  <si>
+    <t>Northrop Grumman</t>
+  </si>
+  <si>
+    <t>Northrop Grumman Systems Corp.</t>
+  </si>
+  <si>
+    <t>Northrop Grumman Systems Corp., Northridge, California, has been awarded a $15,000,000 firm-fixed-price contract for Stand-in Attack Weapon Phase 1.2. This contract provides for all activities associated with the statement of objectives as well as the contractor's proposal for Phase 1.2. Work will be performed in Northridge, California, and is expected to be complete by Feb. 25, 2023. This award is the result of a sole source acquisition. Fiscal 2022 Air Force research and development funds in the amount of $15,000,000 are being obligated at the time of award. Air Force Life Cycle Management Center, Eglin Air Force Base, Florida, is the contracting activity (FA8656-22-F-1051).</t>
+  </si>
+  <si>
+    <t>L3Harris Mustang Technology Group LP, Plano, Texas, has been awarded a $14,579,829 firm-fixed-price contract for Stand-in Attack Weapon Phase 1.2.</t>
+  </si>
+  <si>
+    <t>The system is classified as a missile.</t>
+  </si>
+  <si>
+    <t>The Stand-in Attack Weapon is designed for air-to-surface operations.</t>
+  </si>
+  <si>
+    <t>The system is referred to as the Stand-in Attack Weapon.</t>
+  </si>
+  <si>
+    <t>The specific phase of the system is identified as Phase 1.2.</t>
+  </si>
+  <si>
+    <t>The designators indicate that piloting is not applicable.</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>L3Harris Mustang Technology Group LP</t>
+  </si>
+  <si>
+    <t>14.580</t>
+  </si>
+  <si>
+    <t>L3Harris Mustang Technology Group LP, Plano, Texas, has been awarded a $14,579,829 firm-fixed-price contract for Stand-in Attack Weapon Phase 1.2. This contract provides for all activities associated with the statement of objectives as well as the contractor's proposal for Phase 1.2. Work will be performed in Plano, Texas, and is expected to be complete by Feb. 25, 2023. This award is the result of a sole source acquisition. Fiscal 2022 Air Force research and development funds in the amount of $14,579,829 are being obligated at the time of award. Air Force Life Cycle Management Center, Eglin Air Force Base, Florida, is the contracting activity (FA8656-22-F-1031).</t>
+  </si>
+  <si>
+    <t>The paragraph discusses a contract related to missile production, which falls under weapon systems.</t>
+  </si>
+  <si>
+    <t>The system being produced is a missile, specifically an air-to-air missile.</t>
+  </si>
+  <si>
+    <t>Air-to-Air</t>
+  </si>
+  <si>
+    <t>The specific type of missile mentioned is an air-to-air missile.</t>
+  </si>
+  <si>
+    <t>AIM-120 AMRAAM</t>
+  </si>
+  <si>
+    <t>The AIM-120 AMRAAM is a well-known air-to-air missile referenced in similar contracts.</t>
+  </si>
+  <si>
+    <t>AIM-120 AMRAAM Rectifier Filter Assembly Captive Air Training Missile (CATM) Retrofit effort</t>
+  </si>
+  <si>
+    <t>Advanced Medium Range Air-to-Air Missile Production Lot 35 Rectifier Filter Assembly Captive Air Training Missile Retrofit effort</t>
+  </si>
+  <si>
+    <t>The specific system name is derived from the retrofit effort mentioned in the contract.</t>
+  </si>
+  <si>
+    <t>The paragraph does not mention any piloting requirements or capabilities.</t>
+  </si>
+  <si>
+    <t>Raytheon Missiles and Defense</t>
+  </si>
+  <si>
+    <t>8.838</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Multiple values detected: ['8,837,522', '4,485,281', '3,865,690', '486,551']</t>
+  </si>
+  <si>
+    <t>Raytheon Missiles and Defense, Tucson, Arizona, has been awarded a non-competitive, firm-fixed-price modification (P00021) to previously awarded contract (FA8675-21-C-0034) in the amount of $8,837,522 for Advanced Medium Range Air-to-Air Missile Production Lot 35 Rectifier Filter Assembly Captive Air Training Missile Retrofit effort. Work will be performed in Tucson, Arizona, and is expected to be completed by May 30, 2026. Fiscal 2021 Air Force missile procurement funds in the amount of $4,485,281; fiscal 2021 Navy weapons procurement funds in the amount of $3,865,690; and Foreign Military Sales funds in the amount of $486,551 are being obligated at the time of award. Air Force Life Cycle Management Center, Air Dominance Division Contracting Office, Eglin Air Force Base, Florida, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Raytheon Co., Tewksbury, Massachusetts, was awarded a $182,295,333 firm-fixed-price contract for the procurement of National Advanced Surface-to-Air Missile Systems.</t>
+  </si>
+  <si>
+    <t>The procurement of missile systems falls under the category of Weapon Systems.</t>
+  </si>
+  <si>
+    <t>procurement of National Advanced Surface-to-Air Missile Systems.</t>
+  </si>
+  <si>
+    <t>The National Advanced Surface-to-Air Missile System is an integrated weapon system.</t>
+  </si>
+  <si>
+    <t>The system is specifically designed for air and missile defense.</t>
+  </si>
+  <si>
+    <t>National Advanced Surface-to-Air Missile System (NASAMS)</t>
+  </si>
+  <si>
+    <t>The full name of the system is mentioned in the procurement details.</t>
+  </si>
+  <si>
+    <t>The specific name of the system is provided in the context.</t>
+  </si>
+  <si>
+    <t>No information regarding piloting is provided.</t>
+  </si>
+  <si>
+    <t>182.295</t>
+  </si>
+  <si>
+    <t>Raytheon Co., Tewksbury, Massachusetts, was awarded a $182,295,333 firm-fixed-price contract for the procurement of National Advanced Surface-to-Air Missile Systems. Bids were solicited via the internet with one received. Work will be performed in Tewksbury, Massachusetts, with an estimated completion date of Aug. 23, 2024. Fiscal 2022 Ukraine Security Assistance Initiative funds in the amount of $182,295,333 were obligated at the time of the award. U.S. Army Contracting Command, Redstone Arsenal, Alabama, is the contracting activity (W31P4Q-22-C-0068).</t>
+  </si>
+  <si>
+    <t>MORSECORP Inc., Cambridge, Massachusetts, was awarded a $44,890,537 firm-fixed-price contract for advanced test and evaluation of artificial intelligence and machine learning progress algorithms.</t>
+  </si>
+  <si>
+    <t>The project involves advanced test and evaluation of artificial intelligence, which falls under C4ISR Systems.</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>advanced test and evaluation of artificial intelligence and machine learning progress algorithms.</t>
+  </si>
+  <si>
+    <t>The system type is focused on artificial intelligence technologies.</t>
+  </si>
+  <si>
+    <t>The specific system type is directly related to artificial intelligence.</t>
+  </si>
+  <si>
+    <t>Artificial intelligence and machine learning progress algorithms</t>
+  </si>
+  <si>
+    <t>The name describes the general system being evaluated.</t>
+  </si>
+  <si>
+    <t>Artificial intelligence and machine learning progress algorithms advanced test and evaluation</t>
+  </si>
+  <si>
+    <t>The specific name refers to the advanced test and evaluation project.</t>
+  </si>
+  <si>
+    <t>MorseCorp Inc.</t>
+  </si>
+  <si>
+    <t>MORSECORP Inc.</t>
+  </si>
+  <si>
+    <t>44.891</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Multiple values detected: ['44,890,537', '3,195,693']</t>
+  </si>
+  <si>
+    <t>MORSECORP Inc., Cambridge, Massachusetts, was awarded a $44,890,537 firm-fixed-price contract for advanced test and evaluation of artificial intelligence and machine learning progress algorithms. Bids were solicited via the internet with 999 received. Work will be performed in Cambridge, Massachusetts, with an estimated completion date of Aug. 31, 2025. Fiscal 2022 research, development, test, and evaluation, Army funds in the amount of $3,195,693 were obligated at the time of the award. U.S. Army Contracting Command, Aberdeen Proving Ground, Maryland, is the contracting activity (W911QX-22-C-0029).</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>USD$</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>Defense Wide</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,13 +1459,30 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -306,17 +1511,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -324,6 +1542,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -611,14 +1837,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AW31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="8" width="9.140625" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" customWidth="1"/>
+    <col min="19" max="20" width="9.140625" customWidth="1"/>
+    <col min="22" max="23" width="9.140625" customWidth="1"/>
+    <col min="25" max="27" width="9.140625" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" customWidth="1"/>
+    <col min="41" max="44" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,61 +1879,61 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
@@ -703,7 +1942,7 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
@@ -745,138 +1984,4402 @@
       <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="B3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="M2" t="s">
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F3" t="s">
         <v>51</v>
       </c>
-      <c r="N2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="G3" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="s">
+      <c r="H3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="R3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="X3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>465</v>
+      </c>
+      <c r="F4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="R4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="U4" t="s">
+        <v>115</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="X5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" t="s">
+        <v>146</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="U6" t="s">
+        <v>148</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="X6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="O7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="R7" t="s">
+        <v>156</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="U7" t="s">
+        <v>159</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="X7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI7" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>465</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" t="s">
+        <v>173</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" t="s">
+        <v>175</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" t="s">
+        <v>176</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8" t="s">
+        <v>177</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="X8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI8" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" t="s">
+        <v>185</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="R9" t="s">
+        <v>187</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="U9" t="s">
+        <v>190</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="X9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI9" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU9" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>465</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" t="s">
+        <v>173</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" t="s">
+        <v>174</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="O10" t="s">
+        <v>175</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="R10" t="s">
+        <v>200</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="U10" t="s">
+        <v>202</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="X10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI10" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>465</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" t="s">
+        <v>209</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="L11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="O11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="R11" t="s">
+        <v>213</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="U11" t="s">
+        <v>216</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="X11" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI11" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>224</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>465</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>465</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R12" t="s">
+        <v>225</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="U12" t="s">
+        <v>225</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="X12" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI12" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>231</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>465</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>465</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="L13" t="s">
+        <v>236</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="O13" t="s">
+        <v>238</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="R13" t="s">
+        <v>240</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="U13" t="s">
+        <v>242</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="X13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI13" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>247</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU13" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>465</v>
+      </c>
+      <c r="C14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>465</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" t="s">
+        <v>173</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="L14" t="s">
+        <v>249</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="O14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="R14" t="s">
+        <v>252</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U14" t="s">
+        <v>254</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="X14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC14" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI14" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>260</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU14" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>262</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>465</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>465</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="L15" t="s">
+        <v>174</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="O15" t="s">
+        <v>266</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="R15" t="s">
+        <v>268</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="U15" t="s">
+        <v>268</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="X15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>272</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>273</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU15" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>465</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>465</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="L16" t="s">
+        <v>276</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="O16" t="s">
+        <v>279</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="R16" t="s">
+        <v>281</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="U16" t="s">
+        <v>283</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="X16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>286</v>
+      </c>
+      <c r="AI16" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU16" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>262</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>465</v>
+      </c>
+      <c r="F17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="L17" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="R17" t="s">
+        <v>291</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U17" t="s">
+        <v>291</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="X17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>295</v>
+      </c>
+      <c r="AI17" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>296</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU17" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>262</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>465</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>465</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" t="s">
+        <v>209</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="L18" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="O18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="R18" t="s">
+        <v>300</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="U18" t="s">
+        <v>300</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="X18" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>306</v>
+      </c>
+      <c r="AI18" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU18" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>262</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>465</v>
+      </c>
+      <c r="C19" t="s">
+        <v>468</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>465</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R19" t="s">
+        <v>310</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="U19" t="s">
+        <v>310</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="X19" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>314</v>
+      </c>
+      <c r="AI19" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>314</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>315</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU19" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>317</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>465</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>465</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="O20" t="s">
+        <v>322</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="R20" t="s">
+        <v>324</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="U20" t="s">
+        <v>326</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="X20" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>332</v>
+      </c>
+      <c r="AI20" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>332</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>333</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU20" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>317</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>465</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>465</v>
+      </c>
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" t="s">
         <v>54</v>
       </c>
-      <c r="S2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W2" t="s">
-        <v>57</v>
-      </c>
-      <c r="X2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="J21" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="L21" t="s">
+        <v>336</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="O21" t="s">
+        <v>339</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="R21" t="s">
+        <v>342</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="U21" t="s">
+        <v>344</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="X21" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z21" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA21" t="s">
         <v>68</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="AB21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD21" t="s">
         <v>71</v>
       </c>
-      <c r="AM2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="AE21" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG21" t="s">
         <v>74</v>
       </c>
-      <c r="AP2" t="s">
-        <v>75</v>
+      <c r="AH21" t="s">
+        <v>349</v>
+      </c>
+      <c r="AI21" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>349</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>350</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU21" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>317</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>465</v>
+      </c>
+      <c r="C22" t="s">
+        <v>289</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>465</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="I22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="O22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="R22" t="s">
+        <v>354</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="U22" t="s">
+        <v>354</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="X22" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>467</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH22" s="9">
+        <v>266.75</v>
+      </c>
+      <c r="AI22" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ22" s="9">
+        <v>266.75</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>359</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>360</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>361</v>
+      </c>
+      <c r="AU22" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>363</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>465</v>
+      </c>
+      <c r="C23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>465</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" t="s">
+        <v>364</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="L23" t="s">
+        <v>366</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="O23" t="s">
+        <v>368</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="R23" t="s">
+        <v>370</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="U23" t="s">
+        <v>372</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="X23" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI23" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>376</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS23" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>361</v>
+      </c>
+      <c r="AU23" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>363</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>465</v>
+      </c>
+      <c r="C24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>465</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" t="s">
+        <v>364</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="L24" t="s">
+        <v>366</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="O24" t="s">
+        <v>368</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="R24" t="s">
+        <v>370</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="U24" t="s">
+        <v>372</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="X24" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z24" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI24" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS24" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>361</v>
+      </c>
+      <c r="AU24" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>363</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>465</v>
+      </c>
+      <c r="C25" t="s">
+        <v>289</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" t="s">
+        <v>364</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="L25" t="s">
+        <v>366</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="O25" t="s">
+        <v>368</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="R25" t="s">
+        <v>370</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="U25" t="s">
+        <v>372</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="X25" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI25" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>376</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>389</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS25" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>361</v>
+      </c>
+      <c r="AU25" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>363</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>288</v>
+      </c>
+      <c r="C26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>465</v>
+      </c>
+      <c r="F26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="L26" t="s">
+        <v>109</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="O26" t="s">
+        <v>395</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="R26" t="s">
+        <v>398</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="U26" t="s">
+        <v>400</v>
+      </c>
+      <c r="V26" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="X26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z26" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>403</v>
+      </c>
+      <c r="AI26" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>403</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS26" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU26" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>363</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>465</v>
+      </c>
+      <c r="C27" t="s">
+        <v>289</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>465</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="L27" t="s">
+        <v>109</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="O27" t="s">
+        <v>395</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="R27" t="s">
+        <v>398</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="U27" t="s">
+        <v>400</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="X27" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>403</v>
+      </c>
+      <c r="AI27" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>403</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS27" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU27" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>363</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>465</v>
+      </c>
+      <c r="C28" t="s">
+        <v>289</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>465</v>
+      </c>
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="L28" t="s">
+        <v>109</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="O28" t="s">
+        <v>395</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="R28" t="s">
+        <v>398</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="U28" t="s">
+        <v>400</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="X28" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z28" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>420</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI28" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS28" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU28" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>363</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>288</v>
+      </c>
+      <c r="C29" t="s">
+        <v>289</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>465</v>
+      </c>
+      <c r="F29" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="L29" t="s">
+        <v>109</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="O29" t="s">
+        <v>426</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="R29" t="s">
+        <v>428</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="U29" t="s">
+        <v>430</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="W29" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="X29" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z29" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>434</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>435</v>
+      </c>
+      <c r="AI29" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>435</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>436</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS29" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU29" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>363</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
+        <v>438</v>
+      </c>
+      <c r="C30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>465</v>
+      </c>
+      <c r="F30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="L30" t="s">
+        <v>236</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="O30" t="s">
+        <v>238</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="R30" t="s">
+        <v>444</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="U30" t="s">
+        <v>444</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="X30" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z30" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>448</v>
+      </c>
+      <c r="AI30" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>448</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS30" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU30" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>363</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>465</v>
+      </c>
+      <c r="C31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>465</v>
+      </c>
+      <c r="F31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" t="s">
+        <v>364</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L31" t="s">
+        <v>452</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="O31" t="s">
+        <v>452</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="R31" t="s">
+        <v>456</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="U31" t="s">
+        <v>458</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="X31" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z31" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>460</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF31">
+        <v>999</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>462</v>
+      </c>
+      <c r="AI31" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>462</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>463</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS31" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU31" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>363</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AW31" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="AN2" r:id="rId1"/>
+    <hyperlink ref="AU2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AU3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AU4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AU5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AU6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AU7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AU8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AU9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AU10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AU11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AU12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="AU13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AU14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="AU15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AU16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AU17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AU18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AU19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AU20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="AU21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AU22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="AU23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AU24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="AU25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AU26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="AU27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="AU28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AU29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AU30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="AU31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notebook/Processed_Defense_Data.xlsx
+++ b/notebook/Processed_Defense_Data.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW2"/>
+  <dimension ref="A1:AW6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -711,6 +711,16 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>USA</t>
@@ -728,82 +738,82 @@
       </c>
       <c r="H2" s="4" t="inlineStr">
         <is>
-          <t>Multiple supplier award detected (no supplier split)</t>
+          <t>No split condition found</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C4ISR Systems</t>
+          <t>Air Platforms</t>
         </is>
       </c>
       <c r="J2" s="5" t="inlineStr">
         <is>
-          <t>support of the Naval Air Warfare Center Aircraft Division Integrated Command, Control and Intelligence (IC2&amp;I) Division. These contracts provide engineering and technical support services for legacy, current, and next generation audio/video systems, including efficient information exchange of voice, video and/or data from concept through deployment and the planning, research, design, testing, integration, verification, customization, installation and system operations support of those systems, subsystems, and components in support of the IC2&amp;I Division, which integrates and delivers products for command, control, communications, computers, combat systems, intelligence, surveillance, and reconnaissance systems for the U.S Department of Defense, various other U.S. government departments and agencies and foreign governments.</t>
+          <t>in support of E-2D Advanced Hawkeye aircraft development</t>
         </is>
       </c>
       <c r="K2" s="4" t="inlineStr">
         <is>
-          <t>The contract supports the Integrated Command, Control and Intelligence (IC2&amp;I) Division, which is focused on C4ISR systems.</t>
+          <t>The system is an aircraft, specifically the E-2D Advanced Hawkeye, which falls under the Air Platforms market segment.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Fixed Wing</t>
         </is>
       </c>
       <c r="M2" s="5" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>in support of E-2D Advanced Hawkeye aircraft development</t>
         </is>
       </c>
       <c r="N2" s="4" t="inlineStr">
         <is>
-          <t>The contract does not specify a general system type applicable to the categories listed.</t>
+          <t>The E-2D Advanced Hawkeye is a fixed-wing aircraft.</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>AEW&amp;C</t>
         </is>
       </c>
       <c r="P2" s="5" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>in support of E-2D Advanced Hawkeye aircraft development</t>
         </is>
       </c>
       <c r="Q2" s="4" t="inlineStr">
         <is>
-          <t>The contract does not specify a specific system type applicable to the categories listed.</t>
+          <t>The E-2D Advanced Hawkeye is classified as an Airborne Early Warning and Control (AEW&amp;C) system.</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Integration and Delivery of Products for C4ISR Systems</t>
+          <t>E-2D Advanced Hawkeye</t>
         </is>
       </c>
       <c r="S2" s="5" t="inlineStr">
         <is>
-          <t>These contracts provide engineering and technical support services for legacy, current, and next generation audio/video systems, including efficient information exchange of voice, video and/or data from concept through deployment and the planning, research, design, testing, integration, verification, customization, installation and system operations support of those systems, subsystems, and components in support of the IC2&amp;I Division.</t>
+          <t>E-2D Advanced Hawkeye</t>
         </is>
       </c>
       <c r="T2" s="4" t="inlineStr">
         <is>
-          <t>The contract describes the integration and delivery of products for C4ISR systems as the main focus of the services provided.</t>
+          <t>The general name of the system is explicitly mentioned in the text.</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Extend Services and Adds Hours Increasing the Full-scale Fatigue Repair Time to Achieve the Required Simulated Flight Hours</t>
         </is>
       </c>
       <c r="V2" s="5" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>extend services and adds hours increasing the full-scale fatigue repair time to achieve the required simulated flight hours</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
         <is>
-          <t>The contract does not specify a particular system name or instance.</t>
+          <t>The specific subject of the contract describes the services being extended and the purpose of the modification.</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -820,95 +830,991 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>AV3 Inc., Bridges System Integration LLC, FGS LLC, Futron Inc., iSoft Solution LLC, Mission Analytics LLC, US International Development Consortium Inc.</t>
+          <t>Northrop Grumman</t>
         </is>
       </c>
       <c r="AC2" s="5" t="inlineStr">
         <is>
-          <t>Multiple Suppliers (Detected)</t>
+          <t>Northrop Grumman Systems Corp.</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
+          <t>RDT&amp;E</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Estimated</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>12.015</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>USD$</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>12.015</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Modification increases the ceiling to extend services</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>B2G</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Northrop Grumman Systems Corp., Aerospace Systems, Melbourne, Florida, is awarded a $12,015,026 modification (P00036) to a previously awarded cost-plus-fixed-fee contract (N0001914C0036). This modification increases the ceiling to extend services and adds hours increasing the full-scale fatigue repair time to achieve the required simulated flight hours in support of E-2D Advanced Hawkeye aircraft development. Work will be performed in El Segundo, California (59%); Melbourne, Florida (35%); and Bethpage, New York (6%), and is expected to be completed in June 2023. No funds will be obligated at time of award. The Naval Air Systems Command, Patuxent River, Maryland, is the contracting activity.</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>Contract Modification.</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>https://www.defense.gov/News/Contracts/Contract/Article/2644648/</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>2021-06-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Indigenous</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>No split condition found</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Naval Platforms</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>General Dynamics NASSCO – San Diego, San Diego, California, is awarded a $98,749,123, firm-fixed-price contract for the execution of the USS Pinckney (DDG 91) FY22 depot modernization period.</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>The contract is for the modernization of a naval vessel, specifically the USS Pinckney, which classifies it under Naval Platforms.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Surface Combatants</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t>USS Pinckney (DDG 91)</t>
+        </is>
+      </c>
+      <c r="N3" s="4" t="inlineStr">
+        <is>
+          <t>The USS Pinckney is a destroyer, which falls under the category of surface combatants.</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Destroyers</t>
+        </is>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>USS Pinckney (DDG 91)</t>
+        </is>
+      </c>
+      <c r="Q3" s="4" t="inlineStr">
+        <is>
+          <t>The USS Pinckney is specifically classified as a destroyer, which is a type of surface combatant.</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Arleigh Burke-class</t>
+        </is>
+      </c>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>USS Pinckney (DDG 91)</t>
+        </is>
+      </c>
+      <c r="T3" s="4" t="inlineStr">
+        <is>
+          <t>The USS Pinckney is part of the Arleigh Burke-class of destroyers.</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>USS Pinckney (DDG-91)</t>
+        </is>
+      </c>
+      <c r="V3" s="5" t="inlineStr">
+        <is>
+          <t>USS Pinckney (DDG 91)</t>
+        </is>
+      </c>
+      <c r="W3" s="4" t="inlineStr">
+        <is>
+          <t>The specific name of the vessel being modernized is the USS Pinckney (DDG-91).</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Crewed</t>
+        </is>
+      </c>
+      <c r="Y3" s="5" t="inlineStr"/>
+      <c r="Z3" s="4" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>General Dynamics NASSCO</t>
+        </is>
+      </c>
+      <c r="AC3" s="5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
           <t>MRO/Support</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>98.749</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>USD$</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>98.749</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Includes options which, if exercised, would bring the cumulative value to $121,109,530.</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>B2G</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>Supplier Unknown | System Name 'Arleigh Burke-class' has low KB confidence (0.13)</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>Check LLM Fallback | Verify system name against standard taxonomy</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>Updated Supplier Name to 'General Dynamics NASSCO' and confirmed Program Type as 'MRO/Support' based on the modernization context.</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>General Dynamics NASSCO – San Diego, San Diego, California, is awarded a $98,749,123, firm-fixed-price contract for the execution of the USS Pinckney (DDG 91) FY22 depot modernization period. This availability will include a combination of maintenance, modernization and repair of the USS Pinckney. This contract includes options which, if exercised, would bring the cumulative value of this contract to $121,109,530. Work will be performed in San Diego, California, and is expected to be completed by July 2023. Fiscal 2021 other procurement (Navy) funds in the amount of $93,500,245 (94.7%); and fiscal 2021 operation and maintenance (Navy) funds in the amount of $5,248,878 (5.3%) will be obligated at time of award, of which, funding in the amount of $5,248,878 will expire at the end of the current fiscal year. This contract was competitively procured using full and open competition via the beta.sam.gov website with three offers were received in response to Solicitation No. N00024-21-R-4478.  The Naval Sea Systems Command, Washington, D.C., is the contracting activity (N00024-21-C-4478).</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>Standard extraction.</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>https://www.defense.gov/News/Contracts/Contract/Article/2646965/</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>2021-06-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Air Force</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Indigenous</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>No split condition found</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>This includes work closely related to governmental functions in the domains of engineering, research, development, modeling and simulation, and test and evaluation for the development and application of advanced technology solutions.</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>The contract does not specify a particular defense system or platform, and it relates to research and development activities, which are classified as 'Unknown'.</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M4" s="5" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N4" s="4" t="inlineStr">
+        <is>
+          <t>The contract does not pertain to a specific system type but rather to analysis documentation and research activities.</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="P4" s="5" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="Q4" s="4" t="inlineStr">
+        <is>
+          <t>There is no specific system type mentioned in the contract; it focuses on general research and development.</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Development and Application of Advanced Technology Solutions</t>
+        </is>
+      </c>
+      <c r="S4" s="5" t="inlineStr">
+        <is>
+          <t>Development and application of advanced technology solutions.</t>
+        </is>
+      </c>
+      <c r="T4" s="4" t="inlineStr">
+        <is>
+          <t>This phrase summarizes the main focus of the contract, which is to develop and apply advanced technology solutions.</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Development and Application of Advanced Technology Solutions</t>
+        </is>
+      </c>
+      <c r="V4" s="5" t="inlineStr">
+        <is>
+          <t>Development and application of advanced technology solutions.</t>
+        </is>
+      </c>
+      <c r="W4" s="4" t="inlineStr">
+        <is>
+          <t>The specific subject of the contract is the same as the general system name, focusing on advanced technology solutions.</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="Y4" s="5" t="inlineStr"/>
+      <c r="Z4" s="4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Georgia Tech Applied Research Corp.</t>
+        </is>
+      </c>
+      <c r="AC4" s="5" t="inlineStr">
+        <is>
+          <t>Georgia Tech Applied Research Corp.</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>RDT&amp;E</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>Estimated</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>92.000</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>USD$</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>estimated aggregate ceiling of $100,000,000, indefinite-delivery/indefinite-quantity contract</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Ceiling $92,000,000 indefinite-delivery/indefinite-quantity contract</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
         <is>
           <t>B2G</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>Supplier Unknown | System Name 'Integration and Delivery of Products for C4ISR Systems' has low KB confidence (0.35)</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>Check LLM Fallback | Verify system name against standard taxonomy</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>Updated Supplier Name to list all specific entities involved in the contract. Changed Program Type from 'Other Service' to 'MRO/Support' to align with the nature of the services provided.</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>AV3 Inc.,* Mechanicsville, Maryland (N0042121D0026); Bridges System Integration LLC,* Herndon, Virginia (N0042121D0027); FGS LLC,* LaPlata, Maryland (N0042121D0028); Futron Inc.,* Woodbridge, Virginia (N0042121D0029); iSoft Solution LLC,* Virginia Beach, Virginia (N0042121D0030); Mission Analytics LLC,* Falls Church, Virginia (N0042121D0031); and US International Development Consortium Inc.,* Chantilly, Virginia (N0042121D0032), are awarded an estimated aggregate ceiling of $100,000,000 cost-plus-fixed-fee, firm-fixed-price, cost reimbursable, indefinite-delivery/indefinite-quantity contract in support of the Naval Air Warfare Center Aircraft Division Integrated Command, Control and Intelligence (IC2&amp;I) Division. These contracts provide engineering and technical support services for legacy, current, and next generation audio/video systems, including efficient information exchange of voice, video and/or data from concept through deployment and the planning, research, design, testing, integration, verification, customization, installation and system operations support of those systems, subsystems, and components in support of the IC2&amp;I Division, which integrates and delivers products for command, control, communications, computers, combat systems, intelligence, surveillance, and reconnaissance systems for the U.S Department of Defense, various other U.S. government departments and agencies and foreign governments. The estimated aggregate ceiling for all contracts is $100,000,000, with the companies having an opportunity to compete for individual orders. Work will be performed at various locations within and outside the continental U.S., and is expected to be completed in June 2026. No funds are being obligated at time of award; funds will be obligated on individual orders as they are issued. These contracts were competitively procured via a small business set aside; 13 offers from 13 vendors were received. The Naval Air Warfare Center Aircraft Division, Patuxent River, Maryland, is the contracting activity.</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>System Name 'Development and Application of Advanced Technology Solutions' has low KB confidence (0.26)</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Verify system name against standard taxonomy</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>Updated Supplier Name to the full entity name, confirmed Program Type as RDT&amp;E, and corrected Value (Million) to reflect the ceiling amount of the contract.</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>Georgia Tech Applied Research Corp., Atlanta, Georgia, has been awarded a ceiling $92,000,000 indefinite-delivery/indefinite-quantity contract to obtain essential analysis documentation. This includes work closely related to governmental functions in the domains of engineering, research, development, modeling and simulation, and test and evaluation for the development and application of advanced technology solutions. Work will be performed in Atlanta, Georgia, and is expected to be completed June 3, 2026. This award is the result of a sole-source acquisition. Fiscal 2021 research, development, test and evaluation funds in the amount of $1,749,206 are being obligated at the time of award. Air Force Life Cycle  anagement Center, Wright-Patterson Air Force Base, Ohio, is the contracting activity (FA8684-21-D-2002).</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
         <is>
           <t>Standard extraction.</t>
         </is>
       </c>
-      <c r="AU2" t="inlineStr">
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>https://www.defense.gov/News/Contracts/Contract/Article/2646965/</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>2021-06-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Indigenous</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>No split condition found</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Bowhead Cybersecurity Solutions and Services, Springfield, Virginia is awarded a $92,308,000 cost-plus fixed-fee and cost-only contract for senior consultation support services.</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>The contract is for consultation support services, which does not fit into any specific defense market segment such as Air, Land, Naval, etc.</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M5" s="5" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="inlineStr">
+        <is>
+          <t>The nature of the contract does not pertain to a specific system type in defense categories.</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>The contract does not specify a particular system type.</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Senior Consultation Support Services</t>
+        </is>
+      </c>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>Bowhead Cybersecurity Solutions and Services, Springfield, Virginia is awarded a $92,308,000 cost-plus fixed-fee and cost-only contract for senior consultation support services.</t>
+        </is>
+      </c>
+      <c r="T5" s="4" t="inlineStr">
+        <is>
+          <t>The contract explicitly states that it is for senior consultation support services.</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Senior Consultation Support Services</t>
+        </is>
+      </c>
+      <c r="V5" s="5" t="inlineStr">
+        <is>
+          <t>Bowhead Cybersecurity Solutions and Services, Springfield, Virginia is awarded a $92,308,000 cost-plus fixed-fee and cost-only contract for senior consultation support services.</t>
+        </is>
+      </c>
+      <c r="W5" s="4" t="inlineStr">
+        <is>
+          <t>The specific subject of the contract is clearly identified as senior consultation support services.</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="Y5" s="5" t="inlineStr"/>
+      <c r="Z5" s="4" t="inlineStr"/>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Bowhead Cybersecurity Solutions and Services</t>
+        </is>
+      </c>
+      <c r="AC5" s="5" t="inlineStr">
+        <is>
+          <t>Bowhead Cybersecurity Solutions and Services</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>MRO/Support</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>92.308</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>USD$</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>92.308</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>No options for this contract award.</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>B2G</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>System Name 'Senior Consultation Support Services' has low KB confidence (0.24)</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>Verify system name against standard taxonomy</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>Corrected Supplier Name to the full entity name and confirmed Program Type as MRO/Support based on the nature of the contract.</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>Bowhead Cybersecurity Solutions and Services, Springfield, Virginia is awarded a $92,308,000 cost-plus fixed-fee and cost-only contract for senior consultation support services. Work will be performed in the Washington, D.C. area and is expected to be completed by June 2026. Fiscal 2021 operation and maintenance (Navy) funding in the amount of $2,500,000 will be obligated at the time of award. There are no options for this contract award. This funding would have expired at the end of the current fiscal year if this award had not been made. This contract was a directed in accordance with Section 8(a) of the Small Business Act (15 USC 637(a)(1)) and the Federal Acquisition Regulation part 19.8. The Naval Information Warfare Systems Command, San Diego, California, is the contracting activity (N00039-21-D-5000).</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>Standard extraction.</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
         <is>
           <t>https://www.defense.gov/News/Contracts/Contract/Article/2650662/</t>
         </is>
       </c>
-      <c r="AV2" t="inlineStr">
+      <c r="AV5" t="inlineStr">
         <is>
           <t>2021-06-08 00:00:00</t>
         </is>
       </c>
-      <c r="AW2" t="inlineStr">
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Army</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Indigenous</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>No split condition found</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Weapon Systems</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>procure M240 Series machine gun variants and spare receivers.</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>The contract is for the procurement of weapon systems, specifically machine guns, which falls under the Weapon Systems market segment.</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Small Arms &amp; Ammunition</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>procure M240 Series machine gun variants and spare receivers.</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>The M240 Series machine guns are classified as small arms, which are part of the Small Arms &amp; Ammunition category.</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Small Arms</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>procure M240 Series machine gun variants and spare receivers.</t>
+        </is>
+      </c>
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>The specific type of system being procured is the M240 Series machine guns, which are categorized as small arms.</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>M240 Series Machine Guns</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>procure M240 Series machine gun variants and spare receivers.</t>
+        </is>
+      </c>
+      <c r="T6" s="4" t="inlineStr">
+        <is>
+          <t>The general name of the system being procured is the M240 Series Machine Guns.</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>M240 Series Machine Guns Variants and Spare Receivers</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>procure M240 Series machine gun variants and spare receivers.</t>
+        </is>
+      </c>
+      <c r="W6" s="4" t="inlineStr">
+        <is>
+          <t>The specific subject of the contract includes variants of the M240 Series machine guns and spare receivers.</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr"/>
+      <c r="Z6" s="4" t="inlineStr"/>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>FN America LLC</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>FN America LLC</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Procurement</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>Estimated</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>USD$</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>B2G</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>FN America LLC, Columbia, South Carolina, was awarded a $92,104,736 firm-fixed-price contract to procure M240 Series machine gun variants and spare receivers. One bid was solicited via the internet with one received. Work locations and funding will be determined with each order, with an estimated completion date of June 8, 2026. U.S. Army Contracting Command, New Jersey, is the contracting activity (W15QKN-21-D-0038).</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>Standard extraction.</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>https://www.defense.gov/News/Contracts/Contract/Article/2650662/</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>2021-06-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
         <is>
           <t>2026-01-27</t>
         </is>
